--- a/Data_preparation/datasets/final_data/YELP_INC.xlsx
+++ b/Data_preparation/datasets/final_data/YELP_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,117 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -763,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>47.25</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>39.38999938964844</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>52.5099983215332</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>38.75</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>63060655</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>3526769671</v>
@@ -876,22 +765,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>43.36000061035156</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>26.39999961853028</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>43.4900016784668</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>63060655</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>3218022776</v>
@@ -989,22 +878,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>21.64999961853028</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>22.25</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>63060655</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>1629976363</v>
@@ -1102,22 +991,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>28.39999961853028</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>20.95000076293945</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>28.54999923706055</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>63060655</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>2173732330</v>
@@ -1215,22 +1104,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>19.78000068664551</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>21.88999938964844</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>63060655</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>1512069540</v>
@@ -1328,22 +1217,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>30.67000007629395</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>32.16999816894531</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>32.40999984741211</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>28.68000030517578</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>63060655</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>2321811967</v>
@@ -1441,22 +1330,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>41.54999923706055</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>32.65999984741211</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>43.36000061035156</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>32.09000015258789</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>63060655</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>3225105355</v>
@@ -1554,22 +1443,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>38.5</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>41.77999877929688</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>43.02999877929688</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>37.56000137329102</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>63060655</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>2991581348</v>
@@ -1667,22 +1556,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>5.311937668057123</v>
+        <v>32.90000152587891</v>
       </c>
       <c r="E10">
-        <v>5.160849571228027</v>
+        <v>35.40999984741211</v>
       </c>
       <c r="F10">
-        <v>5.327841658292762</v>
+        <v>36.15999984741211</v>
       </c>
       <c r="G10">
-        <v>4.930241523220734</v>
+        <v>31.61000061035156</v>
       </c>
       <c r="H10">
-        <v>3071530678</v>
+        <v>63060655</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>2606985346</v>
@@ -1780,22 +1669,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>70.19999694824219</v>
+        <v>30.01000022888184</v>
       </c>
       <c r="E11">
-        <v>61.70000076293945</v>
+        <v>32.52999877929688</v>
       </c>
       <c r="F11">
-        <v>77.92500305175781</v>
+        <v>33.31999969482422</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>29.29999923706055</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>63060655</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>2419094906</v>
@@ -1905,22 +1794,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>43.79999923706055</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>46.72000122070312</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>47.20000076293945</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>42.91999816894531</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>63060655</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>3542089991</v>
@@ -2030,22 +1919,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>43.81999969482422</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>46.13999938964844</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>42.02000045776367</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>63060655</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>3478057057</v>
@@ -2155,22 +2044,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>41.59000015258789</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>44.84999847412109</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>45.81999969482422</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>40.16999816894531</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>63060655</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>3485080123</v>
@@ -2268,22 +2157,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>38.77999877929688</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>36.88000106811523</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>41.41999816894531</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>36.40999984741211</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>63060655</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>3277705826</v>
@@ -2393,22 +2282,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>49.65000152587891</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>42.81999969482422</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>49.93000030517578</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>39.5099983215332</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>63060655</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>4116812903</v>
@@ -2518,22 +2407,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>34.18999862670898</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>36.41999816894531</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>37.29999923706055</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>32.84000015258789</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>63060655</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>2907091700</v>
@@ -2643,22 +2532,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>34.90000152587891</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>40.06000137329102</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>40.43999862670898</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>34.61000061035156</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>63060655</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>2829863294</v>
@@ -2759,22 +2648,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>34.75</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>36.31999969482422</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>33.77000045776367</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>63060655</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>2641092394</v>
@@ -2887,22 +2776,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>34.5099983215332</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>35.61999893188477</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>32.16999816894531</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>63060655</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>2468206285</v>
@@ -3015,22 +2904,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>35</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>32.59999847412109</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>37.4900016784668</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>32.56999969482422</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>63060655</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>2445124967</v>
@@ -3143,22 +3032,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>17.01000022888184</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>22.35000038146973</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>24.53000068664551</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>16.15999984741211</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>63060655</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>1295268871</v>
@@ -3259,22 +3148,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>23.1200008392334</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>24.97999954223633</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>25.30999946594238</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>21.64999961853028</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>63060655</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1662810981</v>
@@ -3375,22 +3264,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>20.18000030517578</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>19.67000007629395</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>21.89999961853028</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>63060655</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>1469223989</v>
@@ -3491,22 +3380,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>32.5099983215332</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>32.59000015258789</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>36.72999954223633</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>29.21999931335449</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>63060655</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>2417452260</v>
@@ -3619,22 +3508,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>39.63000106811523</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>39.29999923706055</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>42.45000076293945</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>37.58000183105469</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>63060655</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>2922290358</v>
@@ -3735,22 +3624,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>40.13999938964844</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>37.40000152587891</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>41.06999969482422</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>35.29999923706055</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>63060655</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>2976934845</v>
@@ -3851,22 +3740,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>37.43000030517578</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>38.63000106811523</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>40.79999923706055</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>37.43000030517578</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>63060655</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>2739559259</v>
@@ -3967,22 +3856,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>36.40000152587891</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>34.54000091552734</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>37.68000030517578</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>31.60000038146973</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>63060655</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>2646101616</v>
@@ -4086,22 +3975,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>34.18999862670898</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>32.52999877929688</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>35.70999908447266</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>32.11000061035156</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>63060655</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>2425383602</v>
@@ -4202,22 +4091,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>27.61000061035156</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>30.65999984741211</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>31.63999938964844</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>63060655</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>1967760789</v>
@@ -4330,22 +4219,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>34.08000183105469</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>38.40999984741211</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>39.27000045776367</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>33.34000015258789</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>63060655</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>2382985474</v>
@@ -4458,22 +4347,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>27.82999992370605</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>31.51000022888184</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>31.54000091552734</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>27.40999984741211</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>63060655</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>1905661128</v>
@@ -4586,22 +4475,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>261.1884929516806</v>
+        <v>30.38999938964844</v>
       </c>
       <c r="E34">
-        <v>225.4617156982422</v>
+        <v>29.92000007629395</v>
       </c>
       <c r="F34">
-        <v>262.5264343168398</v>
+        <v>31.22999954223633</v>
       </c>
       <c r="G34">
-        <v>223.9783523558658</v>
+        <v>28.45000076293945</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>63060655</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>2134975534</v>
@@ -4702,22 +4591,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>18.42000007629395</v>
+        <v>36.11000061035156</v>
       </c>
       <c r="E35">
-        <v>19.04000091552734</v>
+        <v>45.04999923706055</v>
       </c>
       <c r="F35">
-        <v>19.38999938964844</v>
+        <v>45.52999877929688</v>
       </c>
       <c r="G35">
-        <v>17.57999992370605</v>
+        <v>35.61000061035156</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>63060655</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>2506398753</v>
@@ -4830,22 +4719,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>41.63000106811523</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>42.18999862670898</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>39.70999908447266</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>63060655</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>2857797626</v>
@@ -4958,22 +4847,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>46.83000183105469</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>43.72999954223633</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>46.97999954223633</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>43.04000091552734</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>63060655</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>3241500979</v>
@@ -5086,22 +4975,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>39.40999984741211</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>40.2400016784668</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>41.58000183105469</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>38.93000030517578</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>63060655</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>2690277428</v>
@@ -5202,22 +5091,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>36.93999862670898</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>36.43000030517578</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>38.11999893188477</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>34.7599983215332</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>63060655</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>2492586476</v>
@@ -5330,22 +5219,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>35.13000106811523</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>34.13999938964844</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>35.43000030517578</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>33.20999908447266</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>63060655</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>2347158459</v>
@@ -5458,22 +5347,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>39.2400016784668</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>39.93999862670898</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>41.72000122070312</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>37.95999908447266</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>63060655</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>2547144603</v>
@@ -5586,22 +5475,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>36.72000122070312</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>35.08000183105469</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>38.54000091552734</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>32.27999877929688</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>63060655</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>2408178544</v>
@@ -5714,22 +5603,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>34.18999862670898</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>34.43000030517578</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>35.9900016784668</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>33.95999908447266</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>63060655</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>2187880008</v>
